--- a/biology/Écologie/Étage_subalpin/Étage_subalpin.xlsx
+++ b/biology/Écologie/Étage_subalpin/Étage_subalpin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tage_subalpin</t>
+          <t>Étage_subalpin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les massifs montagneux des régions tempérées, l'étage subalpin est compris entre 1 700-1 900 m et 2 300-2 500 m d'altitude dans les Alpes et les Pyrénées par exemple et à partir de 1 100-1 400 m d'altitude dans les Vosges, différence due à la latitude et à la rudesse du climat. Lors de l'ascension, il suit l'étage montagnard et précède l'étage alpin. On rencontre à cet étage les premiers alpages où paissent les troupeaux de bovins, ovins ou caprins en été.
 Cet étage peut être comparé à la taïga que l'on retrouve plus au nord.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89tage_subalpin</t>
+          <t>Étage_subalpin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Flore</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Du fait du froid qui raccourcit la saison de végétation les feuillus ou arbres à feuilles caduques se retrouvent moins à cette altitude.
 En Europe, on trouve majoritairement des conifères. Le sapin et le hêtre de l'étage montagnard disparaissent et laissent place à des essences telles que l'épicéa, le pin à crochets, le pin sylvestre et le pin cembro en forêts (les différences entre espèces dépendent du climat). Le mélèze, le sorbier ou le bouleau sont retrouvés dans les zones plus ouvertes. Il y a une flore distincte à l'étage subalpin selon le massif dans lequel on se place (Alpes internes/ Alpes externes). Au-delà de la forêt, on trouve une strate arbustive comprenant notamment des rhododendrons et des genévriers.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89tage_subalpin</t>
+          <t>Étage_subalpin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Faune</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chamois, faucon pèlerin, mouflon, loup, hermine
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89tage_subalpin</t>
+          <t>Étage_subalpin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est à ce niveau que l'on rencontre des habitations particulièrement bien adaptées : les chalets de montagne.
 			Représentation schématique des différents étages de végétation dans les Alpes.
